--- a/data_for_statistical_analyses.xlsx
+++ b/data_for_statistical_analyses.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A024782-ED75-4583-A7FD-4EED61CD9F62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F14A878-61EF-4A41-B0C4-ADFCD4C7E776}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fig. 1D" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>males_visible</t>
   </si>
@@ -57,16 +57,13 @@
     <t>muscimol_dHPC</t>
   </si>
   <si>
-    <t>unpaired ttest</t>
-  </si>
-  <si>
     <t>vehicle</t>
   </si>
   <si>
     <t>CNO</t>
   </si>
   <si>
-    <t>paired ttest</t>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -389,13 +386,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -629,11 +632,6 @@
         <v>2.1903869999999999</v>
       </c>
       <c r="B18" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -642,13 +640,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD69BA3-2346-4308-A36E-EE0EF0026EB0}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -734,11 +736,6 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1">
         <v>2.7884419999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -748,13 +745,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AC4860-7BDF-49DC-9B83-64BCE797FD0E}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -823,11 +824,6 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1.832757</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -837,13 +833,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9036FEB-895C-41F7-96E7-0EFA8D929523}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -915,11 +915,6 @@
       </c>
       <c r="B9" s="1">
         <v>-0.69722170000000006</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -929,128 +924,170 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D924BD-C429-4B2B-A2A5-B9008683BF10}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2.7450359999999998</v>
       </c>
       <c r="B2" s="1">
         <v>-0.87150870000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1.873451</v>
       </c>
       <c r="B3" s="1">
         <v>0.89489439999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1.900466</v>
       </c>
       <c r="B4" s="1">
         <v>0.34696310000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1.506478</v>
       </c>
       <c r="B5" s="1">
         <v>0.78621430000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4.6634380000000002</v>
       </c>
       <c r="B6" s="1">
         <v>2.3608639999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0.61370939999999996</v>
       </c>
       <c r="B7" s="1">
         <v>3.0465420000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1.5010239999999999</v>
       </c>
       <c r="B8" s="1">
         <v>0.57321569999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.84247349999999999</v>
       </c>
       <c r="B9" s="1">
         <v>-0.53317270000000005</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1.7162059999999999</v>
       </c>
       <c r="B10" s="1">
         <v>0.12076539999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2.9765410000000001</v>
       </c>
       <c r="B11" s="1">
         <v>1.467185</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>4.461843</v>
       </c>
       <c r="B12" s="1">
         <v>-0.76603719999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0.7951066</v>
       </c>
       <c r="B13" s="1">
         <v>1.2267600000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0.90098540000000005</v>
       </c>
       <c r="B14" s="1">
         <v>-1.6748639999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="C14">
         <v>13</v>
       </c>
     </row>
@@ -1061,105 +1098,138 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446B5D25-79F1-48BB-B541-EBB4F018B6C4}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1.078762</v>
       </c>
       <c r="B2" s="1">
         <v>1.8024309999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2.5038230000000001</v>
       </c>
       <c r="B3" s="1">
         <v>0.60802560000000005</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>0.62706200000000001</v>
       </c>
       <c r="B4" s="1">
         <v>1.00152</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1.6626559999999999</v>
       </c>
       <c r="B5" s="1">
         <v>1.2801560000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2.1223079999999999</v>
       </c>
       <c r="B6" s="1">
         <v>1.645427</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1.2201</v>
       </c>
       <c r="B7" s="1">
         <v>2.7326510000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2.0260690000000001</v>
       </c>
       <c r="B8" s="1">
         <v>1.21858</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1.89924</v>
       </c>
       <c r="B9" s="1">
         <v>2.8466969999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1.317482</v>
       </c>
       <c r="B10" s="1">
         <v>0.27418480000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>3.611523</v>
       </c>
       <c r="B11" s="1">
         <v>2.2098360000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>13</v>
+      <c r="C11">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
